--- a/medicine/Psychotrope/Domaine_Takahata/Domaine_Takahata.xlsx
+++ b/medicine/Psychotrope/Domaine_Takahata/Domaine_Takahata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le domaine viticole de Takahata (高畠ワイナリー, Takahata Winery?) est une exploitation vitivinicole qui produit du vin à Takahata, situé dans le district de Higashiokitama (préfecture de Yamagata), au nord du Japon.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’exploitation vitivinicole de Takahata a été fondée en septembre 1990 par Minamikyushu Coca-Cola Bottling Co., Ltd. en tant que filiale du groupe et financée à 100% par ce dernier, dans le but de produire et de vendre un vin local à base de raisins cultivés au sein de la préfecture de Yamagata. Le domaine accueille aussi les visites.
 </t>
@@ -543,7 +557,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2700-1 Nukanome, Takahata-machi ōaza, district de Higashiokitama, préfecture de Yamagata, Japon.
 Situé à environ 10 minutes à pied depuis la gare JR Takahata-eki.</t>
@@ -574,17 +590,19 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>« Japan Winery Award » :[2]
-« 2019 – Japan Winery Award – 2ème édition » : obtention de 5 étoiles[3].
-« 2020 – Japan Winery Award – 3ème édition » : obtention de 5 étoiles[4].
-« 2021 – Japan Winery Award – 4ème édition » : obtention de 5 étoiles[5].
-« Japan Wine Competition » :[6]
-« 2019 – Japan Wine Competition – 17ème édition » : premier prix[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« Japan Winery Award » :
+« 2019 – Japan Winery Award – 2ème édition » : obtention de 5 étoiles.
+« 2020 – Japan Winery Award – 3ème édition » : obtention de 5 étoiles.
+« 2021 – Japan Winery Award – 4ème édition » : obtention de 5 étoiles.
+« Japan Wine Competition » :
+« 2019 – Japan Wine Competition – 17ème édition » : premier prix.
 « Takahata Winery – Barrique Chardonnay – Vieilli en fût de chêne » (blanc, variété européenne).
 « Decanter World Wine Awards » :
-« 2021 – Decanter World Wine Awards » : premier prix[8].
+« 2021 – Decanter World Wine Awards » : premier prix.
 « 2017 Takahata Majestic – L’ogre rouge » (rouge).</t>
         </is>
       </c>
